--- a/src/com/excel/testdata/SATData.xlsx
+++ b/src/com/excel/testdata/SATData.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse\workspace\SelfAssessmentTool\src\com\excel\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse\workspace\SelfAssessmentTool2\src\com\excel\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11640" windowHeight="2775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11640" windowHeight="2775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Beforeyoustart" sheetId="7" r:id="rId1"/>
     <sheet name="Form1" sheetId="5" r:id="rId2"/>
     <sheet name="Firsteducation" sheetId="6" r:id="rId3"/>
+    <sheet name="Secondeducation" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>monthlysalary</t>
   </si>
@@ -49,85 +50,134 @@
     <t>dob</t>
   </si>
   <si>
-    <t>APPLICATION CONSULTANT</t>
-  </si>
-  <si>
-    <t>4 years to less than 5 years</t>
+    <t>INDIAN</t>
+  </si>
+  <si>
+    <t>1 year to less than 2 years</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>univname</t>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t>faculty</t>
+  </si>
+  <si>
+    <t>COMPUTER SCIENCE</t>
+  </si>
+  <si>
+    <t>specialisation</t>
+  </si>
+  <si>
+    <t>studymode</t>
+  </si>
+  <si>
+    <t>FULL-TIME</t>
+  </si>
+  <si>
+    <t>yearStudy</t>
+  </si>
+  <si>
+    <t>monthStudy</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>graduationyear</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>satpurpose</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>awardinguniv</t>
+  </si>
+  <si>
+    <t>firstqualification</t>
+  </si>
+  <si>
+    <t>BACHELOR'S DEGREE</t>
+  </si>
+  <si>
+    <t>secondqualification</t>
+  </si>
+  <si>
+    <t>secondfaculty</t>
+  </si>
+  <si>
+    <t>secondspecialisation</t>
+  </si>
+  <si>
+    <t>secondstudymode</t>
+  </si>
+  <si>
+    <t>secondyearStudy</t>
+  </si>
+  <si>
+    <t>secondmonthStudy</t>
+  </si>
+  <si>
+    <t>secondgraduationyear</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>applndate</t>
+  </si>
+  <si>
+    <t>6 years to less than 7 years</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>SENIOR TECHNICAL CONSULTANT</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF MADRAS, CHENNAI</t>
+  </si>
+  <si>
+    <t>MASTER'S DEGREE</t>
+  </si>
+  <si>
+    <t>INFORMATION TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>DISTANCE LEARNING</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2013</t>
   </si>
   <si>
     <t>1 educational qualification attained</t>
-  </si>
-  <si>
-    <t>INDIAN</t>
-  </si>
-  <si>
-    <t>1 year to less than 2 years</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>ANNA UNIVERSITY OF TECHNOLOGY CHENNAI</t>
-  </si>
-  <si>
-    <t>univname</t>
-  </si>
-  <si>
-    <t>INDIA</t>
-  </si>
-  <si>
-    <t>faculty</t>
-  </si>
-  <si>
-    <t>COMPUTER SCIENCE</t>
-  </si>
-  <si>
-    <t>specialisation</t>
-  </si>
-  <si>
-    <t>studymode</t>
-  </si>
-  <si>
-    <t>FULL-TIME</t>
-  </si>
-  <si>
-    <t>yearStudy</t>
-  </si>
-  <si>
-    <t>monthStudy</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>graduationyear</t>
-  </si>
-  <si>
-    <t>16/02/1983</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>satpurpose</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>Individual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-14809]dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-14809]d/m/yyyy;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -171,13 +221,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,26 +514,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -489,10 +543,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,14 +555,20 @@
     <col min="2" max="2" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="1" customWidth="1"/>
-    <col min="7" max="11" width="20" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" style="1" customWidth="1"/>
+    <col min="9" max="13" width="20" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" style="1" customWidth="1"/>
+    <col min="16" max="20" width="20" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -525,78 +585,143 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>6200</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="K2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="9">
+        <v>33226</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>6000</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>28</v>
+      <c r="X2" s="7">
+        <v>43381</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"0 year to less than 1 year,1 year to less than 2 years,2 years to less than 3 years,3 years to less than 4 years,4 years to less than 5 years,5 years to less than 6 years,6 years to less than 7 years,7 years to less than 8 years"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -607,7 +732,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,22 +742,57 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>